--- a/mapping/ChemCatChem_BAO.xlsx
+++ b/mapping/ChemCatChem_BAO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>ChemCatChem_IRI</t>
   </si>
@@ -79,10 +79,19 @@
     <t>{'label': 'hydrolase'}</t>
   </si>
   <si>
+    <t>['Electron microscopy involve the diffraction, reflection, or refraction of electron beams interacting with the subject of study, and the subsequent collection of this scattered radiation in order to build up an image.']</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Import the ligands from PRO with IDs']</t>
+    <t>['For surface plasmon resonance measurements, target protein is immobilized onto a solid surface via covalent or noncovalent interaction. Binding of small molecule compounds changes the refractive index of the immobilized target, which can be detected by optical sensing. Shift in wavelength of light is proportional to mass changes near the sensor surface, with sensitivity to detect mass change being ~300 Da.']</t>
+  </si>
+  <si>
+    <t>['It forms images of surfaces using a physical probe that scans the specimen and measuring on a fine scale, down to the level of molecules and groups of atoms. The resolution is not limited by the diffraction, but by the size of probe-sample interaction volume. Atomic force microscopy (AFM), scanning tunneling microscopy (STM), and near-field scanning optical microscopy (NSOM) are the three common scanning probe techniques.']</t>
+  </si>
+  <si>
+    <t>['Formation of two products from a substrate by hydrolysis.']</t>
   </si>
 </sst>
 </file>
@@ -533,7 +542,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -553,7 +562,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -573,7 +582,7 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
